--- a/groups/23-24-Univers/tasks_results/23.12.10.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.10.xlsx
@@ -10,45 +10,60 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
+    <t>Acmp</t>
+  </si>
+  <si>
+    <t>369588</t>
   </si>
   <si>
     <t>430719</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415486</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -58,12 +73,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
     <t>4+, 5-</t>
   </si>
   <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
     <t>1+</t>
   </si>
   <si>
@@ -173,6 +188,9 @@
   </si>
   <si>
     <t>1876</t>
+  </si>
+  <si>
+    <t>161D</t>
   </si>
 </sst>
 </file>
@@ -531,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -581,313 +599,340 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34"/>
+  <autoFilter ref="A1:E36"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A21" r:id="rId21"/>
-    <hyperlink ref="A22" r:id="rId22"/>
-    <hyperlink ref="A23" r:id="rId23"/>
-    <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A28" r:id="rId28"/>
-    <hyperlink ref="A29" r:id="rId29"/>
-    <hyperlink ref="A30" r:id="rId30"/>
-    <hyperlink ref="A31" r:id="rId31"/>
-    <hyperlink ref="A32" r:id="rId32"/>
-    <hyperlink ref="A33" r:id="rId33"/>
-    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId11"/>
+    <hyperlink ref="A9" r:id="rId12"/>
+    <hyperlink ref="A10" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="A15" r:id="rId18"/>
+    <hyperlink ref="A16" r:id="rId19"/>
+    <hyperlink ref="A17" r:id="rId20"/>
+    <hyperlink ref="A18" r:id="rId21"/>
+    <hyperlink ref="A19" r:id="rId22"/>
+    <hyperlink ref="A20" r:id="rId23"/>
+    <hyperlink ref="A21" r:id="rId24"/>
+    <hyperlink ref="A22" r:id="rId25"/>
+    <hyperlink ref="A23" r:id="rId26"/>
+    <hyperlink ref="A24" r:id="rId27"/>
+    <hyperlink ref="A25" r:id="rId28"/>
+    <hyperlink ref="A26" r:id="rId29"/>
+    <hyperlink ref="A27" r:id="rId30"/>
+    <hyperlink ref="A28" r:id="rId31"/>
+    <hyperlink ref="A29" r:id="rId32"/>
+    <hyperlink ref="A30" r:id="rId33"/>
+    <hyperlink ref="A31" r:id="rId34"/>
+    <hyperlink ref="A32" r:id="rId35"/>
+    <hyperlink ref="A33" r:id="rId36"/>
+    <hyperlink ref="A34" r:id="rId37"/>
+    <hyperlink ref="A35" r:id="rId38"/>
+    <hyperlink ref="A36" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/tasks_results/23.12.10.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -136,6 +136,9 @@
     <t>356</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>480</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>787</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
   <si>
     <t>1830</t>
@@ -222,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,13 +260,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -637,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -696,6 +709,9 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
@@ -718,6 +734,9 @@
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -751,6 +770,9 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
@@ -761,29 +783,32 @@
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
@@ -791,7 +816,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>18</v>
@@ -808,17 +833,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>20</v>
@@ -830,36 +855,39 @@
         <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>30</v>
@@ -867,15 +895,15 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -883,12 +911,15 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/groups/23-24-Univers/tasks_results/23.12.10.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -145,13 +145,13 @@
     <t>510</t>
   </si>
   <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
     <t>544</t>
   </si>
   <si>
     <t>2+, 3-</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
   </si>
   <si>
     <t>554</t>
@@ -630,13 +630,13 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -796,19 +796,25 @@
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
@@ -887,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>30</v>

--- a/groups/23-24-Univers/tasks_results/23.12.10.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -799,8 +799,11 @@
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
